--- a/OnBoard/output/trust/catch/Catch_Trust_43.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_43.xlsx
@@ -941,7 +941,7 @@
         <v>0.288</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I14">
         <v>7.338043478260871</v>
@@ -1187,7 +1187,7 @@
         <v>0.044</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I20">
         <v>7.338043478260871</v>
@@ -1310,7 +1310,7 @@
         <v>0.029</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I23">
         <v>7.338043478260871</v>
@@ -1802,7 +1802,7 @@
         <v>0.796</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I35">
         <v>7.338043478260871</v>
@@ -1884,7 +1884,7 @@
         <v>0.076</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I37">
         <v>7.338043478260871</v>
